--- a/ph_statistical_methods/tests/test_data/testdata_Rate.xlsx
+++ b/ph_statistical_methods/tests/test_data/testdata_Rate.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Georgina.Anderson\Documents\R\Projects\PHEindicatormethods\tests\testthat\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\Python\Projects\PH_statistical_methods\ph_statistical_methods\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39348D5B-ECD3-4C17-B179-7BFC8BF21F8A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AF2F2-8436-4BB6-BE89-B6F09E722FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate" sheetId="2" r:id="rId1"/>
     <sheet name="testdata_Rate_g" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="29">
   <si>
     <t>Denominator</t>
   </si>
@@ -64,61 +75,55 @@
     <t>95%</t>
   </si>
   <si>
-    <t>lowercl</t>
-  </si>
-  <si>
-    <t>uppercl</t>
-  </si>
-  <si>
-    <t>multiplier</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>rate per 100000</t>
-  </si>
-  <si>
-    <t>rate per 100</t>
-  </si>
-  <si>
-    <t>method</t>
-  </si>
-  <si>
     <t>Exact</t>
   </si>
   <si>
     <t>Byars</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>Area10</t>
   </si>
   <si>
     <t>Area11</t>
   </si>
   <si>
-    <t>lower99_8cl</t>
-  </si>
-  <si>
-    <t>upper99_8cl</t>
-  </si>
-  <si>
-    <t>upper95_0cl</t>
-  </si>
-  <si>
-    <t>lower95_0cl</t>
-  </si>
-  <si>
     <t>Area09</t>
   </si>
   <si>
     <t>Area12</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Rate per 100000</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>lower_95_ci</t>
+  </si>
+  <si>
+    <t>upper_95_ci</t>
+  </si>
+  <si>
+    <t>lower_99_8_ci</t>
+  </si>
+  <si>
+    <t>upper_99_8_ci</t>
+  </si>
+  <si>
+    <t>Rate per 100</t>
   </si>
 </sst>
 </file>
@@ -456,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,28 +488,28 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -536,10 +541,10 @@
         <v>9.2334134764515845</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K2" s="3">
         <v>100</v>
@@ -574,10 +579,10 @@
         <v>16.454745203680105</v>
       </c>
       <c r="I3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K3" s="3">
         <v>100</v>
@@ -612,10 +617,10 @@
         <v>38.085035625041911</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K4" s="3">
         <v>100</v>
@@ -650,10 +655,10 @@
         <v>94.000290844318016</v>
       </c>
       <c r="I5" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K5" s="3">
         <v>100</v>
@@ -688,10 +693,10 @@
         <v>82.354472770954303</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K6" s="3">
         <v>100</v>
@@ -726,10 +731,10 @@
         <v>0.10291817639509068</v>
       </c>
       <c r="I7" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K7" s="3">
         <v>100</v>
@@ -764,10 +769,10 @@
         <v>8.4610466817334107</v>
       </c>
       <c r="I8" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -802,10 +807,10 @@
         <v>31.845604819822654</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -840,10 +845,10 @@
         <v>9233.4134764515857</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K10" s="3">
         <v>100000</v>
@@ -878,10 +883,10 @@
         <v>16454.745203680104</v>
       </c>
       <c r="I11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K11" s="3">
         <v>100000</v>
@@ -916,10 +921,10 @@
         <v>38085.035625041914</v>
       </c>
       <c r="I12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K12" s="3">
         <v>100000</v>
@@ -954,10 +959,10 @@
         <v>94000.290844318006</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K13" s="3">
         <v>100000</v>
@@ -992,10 +997,10 @@
         <v>82354.472770954308</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K14" s="3">
         <v>100000</v>
@@ -1030,10 +1035,10 @@
         <v>102.91817639509068</v>
       </c>
       <c r="I15" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K15" s="3">
         <v>100000</v>
@@ -1068,10 +1073,10 @@
         <v>8461.0466817334109</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K16" s="3">
         <v>100000</v>
@@ -1106,10 +1111,10 @@
         <v>31845.604819822653</v>
       </c>
       <c r="I17" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J17" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K17" s="3">
         <v>100000</v>
@@ -1117,13 +1122,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
@@ -1132,16 +1137,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K19" s="3">
         <v>100000</v>
@@ -1149,10 +1154,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="K20" s="3">
         <v>100000</v>
@@ -1160,7 +1165,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B21">
         <v>250</v>
@@ -1184,10 +1189,10 @@
         <v>137651.23772147458</v>
       </c>
       <c r="I21" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K21">
         <v>100000</v>
@@ -1203,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39EBE6-76F1-4DEA-ABB6-5CC513AA3B0B}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1223,25 +1228,25 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -1269,10 +1274,10 @@
         <v>11</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J2" s="3">
         <v>100000</v>
@@ -1303,10 +1308,10 @@
         <v>11</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J3" s="3">
         <v>100000</v>
@@ -1337,10 +1342,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J4" s="3">
         <v>100000</v>
@@ -1371,10 +1376,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J5" s="3">
         <v>100000</v>
@@ -1405,10 +1410,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3">
         <v>100000</v>
@@ -1439,10 +1444,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J7" s="3">
         <v>100000</v>
@@ -1473,10 +1478,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J8" s="3">
         <v>100000</v>
@@ -1507,10 +1512,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J9" s="3">
         <v>100000</v>
@@ -1518,7 +1523,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>100</v>
@@ -1527,7 +1532,7 @@
         <v>11</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J10">
         <v>100000</v>
@@ -1535,7 +1540,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1544,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J11">
         <v>100000</v>
@@ -1555,13 +1560,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="G12" t="s">
         <v>11</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="J12">
         <v>100000</v>
@@ -1569,7 +1574,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B13">
         <v>250</v>
@@ -1590,10 +1595,10 @@
         <v>11</v>
       </c>
       <c r="H13" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="J13">
         <v>100000</v>

--- a/ph_statistical_methods/tests/test_data/testdata_Rate.xlsx
+++ b/ph_statistical_methods/tests/test_data/testdata_Rate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Annabel.Westermann\Documents\Python\Projects\PH_statistical_methods\ph_statistical_methods\tests\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C6AF2F2-8436-4BB6-BE89-B6F09E722FB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CB293F-26EC-4633-BEAA-24A803E8001B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="testdata_Rate" sheetId="2" r:id="rId1"/>
@@ -45,85 +45,85 @@
     <t>Numerator</t>
   </si>
   <si>
+    <t>95%</t>
+  </si>
+  <si>
+    <t>Exact</t>
+  </si>
+  <si>
+    <t>Byars</t>
+  </si>
+  <si>
+    <t>Area09</t>
+  </si>
+  <si>
+    <t>Confidence</t>
+  </si>
+  <si>
+    <t>Statistic</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Rate per 100000</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>lower_95_ci</t>
+  </si>
+  <si>
+    <t>upper_95_ci</t>
+  </si>
+  <si>
+    <t>lower_99_8_ci</t>
+  </si>
+  <si>
+    <t>upper_99_8_ci</t>
+  </si>
+  <si>
+    <t>Rate per 100</t>
+  </si>
+  <si>
+    <t>Area01</t>
+  </si>
+  <si>
+    <t>Area02</t>
+  </si>
+  <si>
+    <t>Area03</t>
+  </si>
+  <si>
+    <t>Area04</t>
+  </si>
+  <si>
+    <t>Area05</t>
+  </si>
+  <si>
+    <t>Area06</t>
+  </si>
+  <si>
+    <t>Area07</t>
+  </si>
+  <si>
+    <t>Area08</t>
+  </si>
+  <si>
     <t>Area</t>
   </si>
   <si>
-    <t>Area1</t>
-  </si>
-  <si>
-    <t>Area5</t>
-  </si>
-  <si>
-    <t>Area2</t>
-  </si>
-  <si>
-    <t>Area3</t>
-  </si>
-  <si>
-    <t>Area4</t>
-  </si>
-  <si>
-    <t>Area6</t>
-  </si>
-  <si>
-    <t>Area7</t>
-  </si>
-  <si>
-    <t>Area8</t>
-  </si>
-  <si>
-    <t>95%</t>
-  </si>
-  <si>
-    <t>Exact</t>
-  </si>
-  <si>
-    <t>Byars</t>
-  </si>
-  <si>
     <t>Area10</t>
   </si>
   <si>
     <t>Area11</t>
   </si>
   <si>
-    <t>Area09</t>
-  </si>
-  <si>
     <t>Area12</t>
-  </si>
-  <si>
-    <t>Confidence</t>
-  </si>
-  <si>
-    <t>Statistic</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Multiplier</t>
-  </si>
-  <si>
-    <t>Rate per 100000</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>lower_95_ci</t>
-  </si>
-  <si>
-    <t>upper_95_ci</t>
-  </si>
-  <si>
-    <t>lower_99_8_ci</t>
-  </si>
-  <si>
-    <t>upper_99_8_ci</t>
-  </si>
-  <si>
-    <t>Rate per 100</t>
   </si>
 </sst>
 </file>
@@ -461,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -479,7 +479,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -488,33 +488,33 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2" s="3">
         <v>1</v>
@@ -541,10 +541,10 @@
         <v>9.2334134764515845</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K2" s="3">
         <v>100</v>
@@ -552,7 +552,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3">
         <v>5</v>
@@ -579,10 +579,10 @@
         <v>16.454745203680105</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K3" s="3">
         <v>100</v>
@@ -590,7 +590,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3">
         <v>20</v>
@@ -617,10 +617,10 @@
         <v>38.085035625041911</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K4" s="3">
         <v>100</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5" s="3">
         <v>65</v>
@@ -655,10 +655,10 @@
         <v>94.000290844318016</v>
       </c>
       <c r="I5" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K5" s="3">
         <v>100</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3">
         <v>9856</v>
@@ -693,10 +693,10 @@
         <v>82.354472770954303</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
         <v>100</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3">
         <v>7776456</v>
@@ -731,10 +731,10 @@
         <v>0.10291817639509068</v>
       </c>
       <c r="I7" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K7" s="3">
         <v>100</v>
@@ -742,7 +742,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B8" s="3">
         <v>222</v>
@@ -769,10 +769,10 @@
         <v>8.4610466817334107</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K8" s="3">
         <v>100</v>
@@ -780,7 +780,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3">
         <v>999</v>
@@ -807,10 +807,10 @@
         <v>31.845604819822654</v>
       </c>
       <c r="I9" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K9" s="3">
         <v>100</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -845,10 +845,10 @@
         <v>9233.4134764515857</v>
       </c>
       <c r="I10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K10" s="3">
         <v>100000</v>
@@ -856,7 +856,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>5</v>
@@ -873,7 +873,7 @@
         <v>1623.4863901184199</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="2"/>
+        <f>IF($B11&lt;10,CHIINV(0.5-95/200,2*$B11+2)/2,($B11+1)*(1-1/(9*($B11+1))+NORMSINV(0.5+95/200)/3/SQRT($B11+1))^3)/$C11*$K11</f>
         <v>11668.332079322669</v>
       </c>
       <c r="G11" s="3">
@@ -883,10 +883,10 @@
         <v>16454.745203680104</v>
       </c>
       <c r="I11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K11" s="3">
         <v>100000</v>
@@ -894,7 +894,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>38085.035625041914</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>100000</v>
@@ -932,7 +932,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>65</v>
@@ -959,10 +959,10 @@
         <v>94000.290844318006</v>
       </c>
       <c r="I13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K13" s="3">
         <v>100000</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>9856</v>
@@ -997,10 +997,10 @@
         <v>82354.472770954308</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>100000</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>7776456</v>
@@ -1035,10 +1035,10 @@
         <v>102.91817639509068</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K15" s="3">
         <v>100000</v>
@@ -1046,7 +1046,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>222</v>
@@ -1073,10 +1073,10 @@
         <v>8461.0466817334109</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K16" s="3">
         <v>100000</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>999</v>
@@ -1111,10 +1111,10 @@
         <v>31845.604819822653</v>
       </c>
       <c r="I17" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J17" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K17" s="3">
         <v>100000</v>
@@ -1122,13 +1122,13 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>100</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
@@ -1137,16 +1137,16 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>10</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K19" s="3">
         <v>100000</v>
@@ -1154,10 +1154,10 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="K20" s="3">
         <v>100000</v>
@@ -1165,7 +1165,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B21">
         <v>250</v>
@@ -1189,10 +1189,10 @@
         <v>137651.23772147458</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K21">
         <v>100000</v>
@@ -1208,8 +1208,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD39EBE6-76F1-4DEA-ABB6-5CC513AA3B0B}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1219,7 +1219,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1228,30 +1228,30 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A2,testdata_Rate!B$2:B$17)</f>
@@ -1271,13 +1271,13 @@
         <v>3612.3438338619794</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J2" s="3">
         <v>100000</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A3,testdata_Rate!B$2:B$17)</f>
@@ -1305,13 +1305,13 @@
         <v>9195.7293028782369</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J3" s="3">
         <v>100000</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A4,testdata_Rate!B$2:B$17)</f>
@@ -1339,13 +1339,13 @@
         <v>27235.04966001213</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J4" s="3">
         <v>100000</v>
@@ -1353,7 +1353,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A5,testdata_Rate!B$2:B$17)</f>
@@ -1373,13 +1373,13 @@
         <v>77182.744306619628</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J5" s="3">
         <v>100000</v>
@@ -1387,7 +1387,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A6,testdata_Rate!B$2:B$17)</f>
@@ -1407,13 +1407,13 @@
         <v>80960.432718132564</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J6" s="3">
         <v>100000</v>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A7,testdata_Rate!B$2:B$17)</f>
@@ -1441,13 +1441,13 @@
         <v>102.85530745877516</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J7" s="3">
         <v>100000</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="B8">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A8,testdata_Rate!B$2:B$17)</f>
@@ -1475,13 +1475,13 @@
         <v>7578.3044586343622</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J8" s="3">
         <v>100000</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B9">
         <f>SUMIF(testdata_Rate!$A$2:$A$17,testdata_Rate_g!$A9,testdata_Rate!B$2:B$17)</f>
@@ -1509,13 +1509,13 @@
         <v>30202.169187218453</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J9" s="3">
         <v>100000</v>
@@ -1523,16 +1523,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>100000</v>
@@ -1540,19 +1540,19 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J11">
         <v>100000</v>
@@ -1560,13 +1560,13 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G12" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>100000</v>
@@ -1574,7 +1574,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>250</v>
@@ -1592,13 +1592,13 @@
         <v>128631.14487455782</v>
       </c>
       <c r="G13" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J13">
         <v>100000</v>
